--- a/form_reporting_templates/Form-3CE-update.xlsx
+++ b/form_reporting_templates/Form-3CE-update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AFE1BB-8710-4091-8ECE-E587F577264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7447CA-8C96-4706-AA20-B32DC4E206F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Focal point</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Catches by species</t>
   </si>
   <si>
-    <t>Main stratum</t>
-  </si>
-  <si>
     <t>Effort values</t>
   </si>
   <si>
@@ -154,6 +151,12 @@
   </si>
   <si>
     <t>3CE-update</t>
+  </si>
+  <si>
+    <t>Main elements</t>
+  </si>
+  <si>
+    <t>Original data</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -560,10 +563,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -571,41 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -627,6 +619,19 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -680,7 +685,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -688,10 +693,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -700,195 +701,199 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1232,24 +1237,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1257,14 +1262,14 @@
         <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1299,15 +1304,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="68"/>
+      <c r="F8" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="61"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,12 +1331,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1348,9 +1353,9 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="40"/>
+        <v>30</v>
+      </c>
+      <c r="D12" s="36"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1361,7 +1366,7 @@
       <c r="C13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1410,20 +1415,20 @@
       <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="41"/>
+      <c r="C19" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="37"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1431,10 +1436,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="41"/>
+      <c r="C20" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="37"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1463,7 +1468,7 @@
       <c r="C23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1474,23 +1479,23 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="41"/>
+      <c r="C25" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="37"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="41"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1498,31 +1503,31 @@
       <c r="C26" s="12"/>
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="41"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="41"/>
+      <c r="G27" s="37"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="41"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1530,23 +1535,23 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="41"/>
+      <c r="C29" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="37"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="41"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1557,9 +1562,9 @@
       <c r="C31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="42"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1605,11 +1610,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1672,375 +1677,377 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="59" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="58"/>
-    <col min="9" max="106" width="9.140625" style="59"/>
-    <col min="107" max="107" width="9.140625" style="60"/>
+    <col min="2" max="2" width="11.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="51" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="50"/>
+    <col min="9" max="106" width="9.140625" style="51"/>
+    <col min="107" max="107" width="9.140625" style="52"/>
     <col min="108" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:107" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="70"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="70"/>
-      <c r="CR2" s="70"/>
-      <c r="CS2" s="70"/>
-      <c r="CT2" s="70"/>
-      <c r="CU2" s="70"/>
-      <c r="CV2" s="70"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="70"/>
-      <c r="CY2" s="70"/>
-      <c r="CZ2" s="70"/>
-      <c r="DA2" s="70"/>
-      <c r="DB2" s="70"/>
-      <c r="DC2" s="71"/>
+      <c r="B2" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="63"/>
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="63"/>
+      <c r="BD2" s="63"/>
+      <c r="BE2" s="63"/>
+      <c r="BF2" s="63"/>
+      <c r="BG2" s="63"/>
+      <c r="BH2" s="63"/>
+      <c r="BI2" s="63"/>
+      <c r="BJ2" s="63"/>
+      <c r="BK2" s="63"/>
+      <c r="BL2" s="63"/>
+      <c r="BM2" s="63"/>
+      <c r="BN2" s="63"/>
+      <c r="BO2" s="63"/>
+      <c r="BP2" s="63"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="63"/>
+      <c r="BY2" s="63"/>
+      <c r="BZ2" s="63"/>
+      <c r="CA2" s="63"/>
+      <c r="CB2" s="63"/>
+      <c r="CC2" s="63"/>
+      <c r="CD2" s="63"/>
+      <c r="CE2" s="63"/>
+      <c r="CF2" s="63"/>
+      <c r="CG2" s="63"/>
+      <c r="CH2" s="63"/>
+      <c r="CI2" s="63"/>
+      <c r="CJ2" s="63"/>
+      <c r="CK2" s="63"/>
+      <c r="CL2" s="63"/>
+      <c r="CM2" s="63"/>
+      <c r="CN2" s="63"/>
+      <c r="CO2" s="63"/>
+      <c r="CP2" s="63"/>
+      <c r="CQ2" s="63"/>
+      <c r="CR2" s="63"/>
+      <c r="CS2" s="63"/>
+      <c r="CT2" s="63"/>
+      <c r="CU2" s="63"/>
+      <c r="CV2" s="63"/>
+      <c r="CW2" s="63"/>
+      <c r="CX2" s="63"/>
+      <c r="CY2" s="63"/>
+      <c r="CZ2" s="63"/>
+      <c r="DA2" s="63"/>
+      <c r="DB2" s="63"/>
+      <c r="DC2" s="64"/>
     </row>
     <row r="3" spans="2:107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="73"/>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="73"/>
-      <c r="BO3" s="73"/>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
-      <c r="BS3" s="73"/>
-      <c r="BT3" s="73"/>
-      <c r="BU3" s="73"/>
-      <c r="BV3" s="73"/>
-      <c r="BW3" s="73"/>
-      <c r="BX3" s="73"/>
-      <c r="BY3" s="73"/>
-      <c r="BZ3" s="73"/>
-      <c r="CA3" s="73"/>
-      <c r="CB3" s="73"/>
-      <c r="CC3" s="73"/>
-      <c r="CD3" s="73"/>
-      <c r="CE3" s="73"/>
-      <c r="CF3" s="73"/>
-      <c r="CG3" s="73"/>
-      <c r="CH3" s="73"/>
-      <c r="CI3" s="73"/>
-      <c r="CJ3" s="73"/>
-      <c r="CK3" s="73"/>
-      <c r="CL3" s="73"/>
-      <c r="CM3" s="73"/>
-      <c r="CN3" s="73"/>
-      <c r="CO3" s="73"/>
-      <c r="CP3" s="73"/>
-      <c r="CQ3" s="73"/>
-      <c r="CR3" s="73"/>
-      <c r="CS3" s="73"/>
-      <c r="CT3" s="73"/>
-      <c r="CU3" s="73"/>
-      <c r="CV3" s="73"/>
-      <c r="CW3" s="73"/>
-      <c r="CX3" s="73"/>
-      <c r="CY3" s="73"/>
-      <c r="CZ3" s="73"/>
-      <c r="DA3" s="73"/>
-      <c r="DB3" s="73"/>
-      <c r="DC3" s="74"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="66"/>
+      <c r="BH3" s="66"/>
+      <c r="BI3" s="66"/>
+      <c r="BJ3" s="66"/>
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="66"/>
+      <c r="BM3" s="66"/>
+      <c r="BN3" s="66"/>
+      <c r="BO3" s="66"/>
+      <c r="BP3" s="66"/>
+      <c r="BQ3" s="66"/>
+      <c r="BR3" s="66"/>
+      <c r="BS3" s="66"/>
+      <c r="BT3" s="66"/>
+      <c r="BU3" s="66"/>
+      <c r="BV3" s="66"/>
+      <c r="BW3" s="66"/>
+      <c r="BX3" s="66"/>
+      <c r="BY3" s="66"/>
+      <c r="BZ3" s="66"/>
+      <c r="CA3" s="66"/>
+      <c r="CB3" s="66"/>
+      <c r="CC3" s="66"/>
+      <c r="CD3" s="66"/>
+      <c r="CE3" s="66"/>
+      <c r="CF3" s="66"/>
+      <c r="CG3" s="66"/>
+      <c r="CH3" s="66"/>
+      <c r="CI3" s="66"/>
+      <c r="CJ3" s="66"/>
+      <c r="CK3" s="66"/>
+      <c r="CL3" s="66"/>
+      <c r="CM3" s="66"/>
+      <c r="CN3" s="66"/>
+      <c r="CO3" s="66"/>
+      <c r="CP3" s="66"/>
+      <c r="CQ3" s="66"/>
+      <c r="CR3" s="66"/>
+      <c r="CS3" s="66"/>
+      <c r="CT3" s="66"/>
+      <c r="CU3" s="66"/>
+      <c r="CV3" s="66"/>
+      <c r="CW3" s="66"/>
+      <c r="CX3" s="66"/>
+      <c r="CY3" s="66"/>
+      <c r="CZ3" s="66"/>
+      <c r="DA3" s="66"/>
+      <c r="DB3" s="66"/>
+      <c r="DC3" s="67"/>
     </row>
     <row r="4" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="81" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="82"/>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="82"/>
-      <c r="BM4" s="82"/>
-      <c r="BN4" s="82"/>
-      <c r="BO4" s="82"/>
-      <c r="BP4" s="82"/>
-      <c r="BQ4" s="82"/>
-      <c r="BR4" s="82"/>
-      <c r="BS4" s="82"/>
-      <c r="BT4" s="82"/>
-      <c r="BU4" s="82"/>
-      <c r="BV4" s="82"/>
-      <c r="BW4" s="82"/>
-      <c r="BX4" s="82"/>
-      <c r="BY4" s="82"/>
-      <c r="BZ4" s="82"/>
-      <c r="CA4" s="82"/>
-      <c r="CB4" s="82"/>
-      <c r="CC4" s="82"/>
-      <c r="CD4" s="82"/>
-      <c r="CE4" s="82"/>
-      <c r="CF4" s="82"/>
-      <c r="CG4" s="82"/>
-      <c r="CH4" s="82"/>
-      <c r="CI4" s="82"/>
-      <c r="CJ4" s="82"/>
-      <c r="CK4" s="82"/>
-      <c r="CL4" s="82"/>
-      <c r="CM4" s="82"/>
-      <c r="CN4" s="82"/>
-      <c r="CO4" s="82"/>
-      <c r="CP4" s="82"/>
-      <c r="CQ4" s="82"/>
-      <c r="CR4" s="82"/>
-      <c r="CS4" s="82"/>
-      <c r="CT4" s="82"/>
-      <c r="CU4" s="82"/>
-      <c r="CV4" s="82"/>
-      <c r="CW4" s="82"/>
-      <c r="CX4" s="82"/>
-      <c r="CY4" s="82"/>
-      <c r="CZ4" s="82"/>
-      <c r="DA4" s="82"/>
-      <c r="DB4" s="82"/>
-      <c r="DC4" s="83"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="69"/>
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="69"/>
+      <c r="BK4" s="69"/>
+      <c r="BL4" s="69"/>
+      <c r="BM4" s="69"/>
+      <c r="BN4" s="69"/>
+      <c r="BO4" s="69"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="69"/>
+      <c r="BS4" s="69"/>
+      <c r="BT4" s="69"/>
+      <c r="BU4" s="69"/>
+      <c r="BV4" s="69"/>
+      <c r="BW4" s="69"/>
+      <c r="BX4" s="69"/>
+      <c r="BY4" s="69"/>
+      <c r="BZ4" s="69"/>
+      <c r="CA4" s="69"/>
+      <c r="CB4" s="69"/>
+      <c r="CC4" s="69"/>
+      <c r="CD4" s="69"/>
+      <c r="CE4" s="69"/>
+      <c r="CF4" s="69"/>
+      <c r="CG4" s="69"/>
+      <c r="CH4" s="69"/>
+      <c r="CI4" s="69"/>
+      <c r="CJ4" s="69"/>
+      <c r="CK4" s="69"/>
+      <c r="CL4" s="69"/>
+      <c r="CM4" s="69"/>
+      <c r="CN4" s="69"/>
+      <c r="CO4" s="69"/>
+      <c r="CP4" s="69"/>
+      <c r="CQ4" s="69"/>
+      <c r="CR4" s="69"/>
+      <c r="CS4" s="69"/>
+      <c r="CT4" s="69"/>
+      <c r="CU4" s="69"/>
+      <c r="CV4" s="69"/>
+      <c r="CW4" s="69"/>
+      <c r="CX4" s="69"/>
+      <c r="CY4" s="69"/>
+      <c r="CZ4" s="69"/>
+      <c r="DA4" s="69"/>
+      <c r="DB4" s="69"/>
+      <c r="DC4" s="70"/>
     </row>
     <row r="5" spans="2:107" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
@@ -2144,510 +2151,510 @@
     <row r="6" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="62"/>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="62"/>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="62"/>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="62"/>
-      <c r="BA6" s="62"/>
-      <c r="BB6" s="62"/>
-      <c r="BC6" s="62"/>
-      <c r="BD6" s="62"/>
-      <c r="BE6" s="62"/>
-      <c r="BF6" s="62"/>
-      <c r="BG6" s="62"/>
-      <c r="BH6" s="62"/>
-      <c r="BI6" s="62"/>
-      <c r="BJ6" s="62"/>
-      <c r="BK6" s="62"/>
-      <c r="BL6" s="62"/>
-      <c r="BM6" s="62"/>
-      <c r="BN6" s="62"/>
-      <c r="BO6" s="62"/>
-      <c r="BP6" s="62"/>
-      <c r="BQ6" s="62"/>
-      <c r="BR6" s="62"/>
-      <c r="BS6" s="62"/>
-      <c r="BT6" s="62"/>
-      <c r="BU6" s="62"/>
-      <c r="BV6" s="62"/>
-      <c r="BW6" s="62"/>
-      <c r="BX6" s="62"/>
-      <c r="BY6" s="62"/>
-      <c r="BZ6" s="62"/>
-      <c r="CA6" s="62"/>
-      <c r="CB6" s="62"/>
-      <c r="CC6" s="62"/>
-      <c r="CD6" s="62"/>
-      <c r="CE6" s="62"/>
-      <c r="CF6" s="62"/>
-      <c r="CG6" s="62"/>
-      <c r="CH6" s="62"/>
-      <c r="CI6" s="62"/>
-      <c r="CJ6" s="62"/>
-      <c r="CK6" s="62"/>
-      <c r="CL6" s="62"/>
-      <c r="CM6" s="62"/>
-      <c r="CN6" s="62"/>
-      <c r="CO6" s="62"/>
-      <c r="CP6" s="62"/>
-      <c r="CQ6" s="62"/>
-      <c r="CR6" s="62"/>
-      <c r="CS6" s="62"/>
-      <c r="CT6" s="62"/>
-      <c r="CU6" s="62"/>
-      <c r="CV6" s="62"/>
-      <c r="CW6" s="62"/>
-      <c r="CX6" s="62"/>
-      <c r="CY6" s="62"/>
-      <c r="CZ6" s="62"/>
-      <c r="DA6" s="62"/>
-      <c r="DB6" s="62"/>
-      <c r="DC6" s="63"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="54"/>
+      <c r="AW6" s="54"/>
+      <c r="AX6" s="54"/>
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="54"/>
+      <c r="BE6" s="54"/>
+      <c r="BF6" s="54"/>
+      <c r="BG6" s="54"/>
+      <c r="BH6" s="54"/>
+      <c r="BI6" s="54"/>
+      <c r="BJ6" s="54"/>
+      <c r="BK6" s="54"/>
+      <c r="BL6" s="54"/>
+      <c r="BM6" s="54"/>
+      <c r="BN6" s="54"/>
+      <c r="BO6" s="54"/>
+      <c r="BP6" s="54"/>
+      <c r="BQ6" s="54"/>
+      <c r="BR6" s="54"/>
+      <c r="BS6" s="54"/>
+      <c r="BT6" s="54"/>
+      <c r="BU6" s="54"/>
+      <c r="BV6" s="54"/>
+      <c r="BW6" s="54"/>
+      <c r="BX6" s="54"/>
+      <c r="BY6" s="54"/>
+      <c r="BZ6" s="54"/>
+      <c r="CA6" s="54"/>
+      <c r="CB6" s="54"/>
+      <c r="CC6" s="54"/>
+      <c r="CD6" s="54"/>
+      <c r="CE6" s="54"/>
+      <c r="CF6" s="54"/>
+      <c r="CG6" s="54"/>
+      <c r="CH6" s="54"/>
+      <c r="CI6" s="54"/>
+      <c r="CJ6" s="54"/>
+      <c r="CK6" s="54"/>
+      <c r="CL6" s="54"/>
+      <c r="CM6" s="54"/>
+      <c r="CN6" s="54"/>
+      <c r="CO6" s="54"/>
+      <c r="CP6" s="54"/>
+      <c r="CQ6" s="54"/>
+      <c r="CR6" s="54"/>
+      <c r="CS6" s="54"/>
+      <c r="CT6" s="54"/>
+      <c r="CU6" s="54"/>
+      <c r="CV6" s="54"/>
+      <c r="CW6" s="54"/>
+      <c r="CX6" s="54"/>
+      <c r="CY6" s="54"/>
+      <c r="CZ6" s="54"/>
+      <c r="DA6" s="54"/>
+      <c r="DB6" s="54"/>
+      <c r="DC6" s="55"/>
     </row>
     <row r="7" spans="2:107" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:107" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:107" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="2:107" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="2:107" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="2:107" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="2:107" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:107" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="2:107" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="2:107" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="35"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="35"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="39"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="35"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="35"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="39"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="35"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="39"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="35"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="39"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qu+HEgqrWIbEREl7p31mJI9r2dZa9xw/0VESHmIecIjlmCLVkKDarlXaDjhqLWi0PSX5uGEykLgI+0l9oJNcKA==" saltValue="ciFOWMQUNbWZnhDf/zBVZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="alt0JK7InFuwzLxuqhQ4oL3ojJ1Z06eWTwohQIsHI5eLKZmRdWFjCV+WXagvKjax0BjeYOPZl5IBed+drk2FGQ==" saltValue="NUR9rD3IKo9as9fH+cvZaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:DC3"/>
+    <mergeCell ref="H4:DC4"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:DC4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:DC1048576">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/form_reporting_templates/Form-3CE-update.xlsx
+++ b/form_reporting_templates/Form-3CE-update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7447CA-8C96-4706-AA20-B32DC4E206F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAEC914-2CA4-416E-A8D2-4499DCB710FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -164,8 +164,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -723,10 +723,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -805,6 +801,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -865,35 +892,8 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -923,9 +923,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -963,7 +963,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1069,7 +1069,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1211,7 +1211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1237,24 +1237,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1304,15 +1304,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
       <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1366,7 +1366,7 @@
       <c r="C13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1415,20 +1415,20 @@
       <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="37"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1479,23 +1479,23 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="61"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="37"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1503,31 +1503,31 @@
       <c r="C26" s="12"/>
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="37"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="37"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1535,23 +1535,23 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="37"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="37"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1562,7 +1562,7 @@
       <c r="C31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="10" t="s">
         <v>28</v>
       </c>
@@ -1610,11 +1610,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HJeHkPJMwIN9mrrRptDovr7zRsjXVVStkjPwbl89GbPD5FoYCAfA7vjzpFIyIf1EUlDxoGeINj1tCgQcA1R9cQ==" saltValue="nuzAgmbKzFjujpj2Fh7A2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uP9CdPJ8vbJJ3eXNrHq0OmCh555X+jH/m9uHuJT8xurDQ0R+TYL8Gee3/iB0x5oieSpZi46gP902RqPaEHBo+A==" saltValue="oHKY8hRMaEtUZo/Q7dsceg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="F24:G24"/>
@@ -1677,15 +1677,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="50" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="51" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="50"/>
-    <col min="9" max="106" width="9.140625" style="51"/>
-    <col min="107" max="107" width="9.140625" style="52"/>
+    <col min="2" max="2" width="11.42578125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="50" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="51" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="49"/>
+    <col min="9" max="106" width="9.140625" style="50"/>
+    <col min="107" max="107" width="9.140625" style="51"/>
     <col min="108" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
@@ -1695,359 +1695,359 @@
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="63"/>
-      <c r="BB2" s="63"/>
-      <c r="BC2" s="63"/>
-      <c r="BD2" s="63"/>
-      <c r="BE2" s="63"/>
-      <c r="BF2" s="63"/>
-      <c r="BG2" s="63"/>
-      <c r="BH2" s="63"/>
-      <c r="BI2" s="63"/>
-      <c r="BJ2" s="63"/>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="63"/>
-      <c r="BN2" s="63"/>
-      <c r="BO2" s="63"/>
-      <c r="BP2" s="63"/>
-      <c r="BQ2" s="63"/>
-      <c r="BR2" s="63"/>
-      <c r="BS2" s="63"/>
-      <c r="BT2" s="63"/>
-      <c r="BU2" s="63"/>
-      <c r="BV2" s="63"/>
-      <c r="BW2" s="63"/>
-      <c r="BX2" s="63"/>
-      <c r="BY2" s="63"/>
-      <c r="BZ2" s="63"/>
-      <c r="CA2" s="63"/>
-      <c r="CB2" s="63"/>
-      <c r="CC2" s="63"/>
-      <c r="CD2" s="63"/>
-      <c r="CE2" s="63"/>
-      <c r="CF2" s="63"/>
-      <c r="CG2" s="63"/>
-      <c r="CH2" s="63"/>
-      <c r="CI2" s="63"/>
-      <c r="CJ2" s="63"/>
-      <c r="CK2" s="63"/>
-      <c r="CL2" s="63"/>
-      <c r="CM2" s="63"/>
-      <c r="CN2" s="63"/>
-      <c r="CO2" s="63"/>
-      <c r="CP2" s="63"/>
-      <c r="CQ2" s="63"/>
-      <c r="CR2" s="63"/>
-      <c r="CS2" s="63"/>
-      <c r="CT2" s="63"/>
-      <c r="CU2" s="63"/>
-      <c r="CV2" s="63"/>
-      <c r="CW2" s="63"/>
-      <c r="CX2" s="63"/>
-      <c r="CY2" s="63"/>
-      <c r="CZ2" s="63"/>
-      <c r="DA2" s="63"/>
-      <c r="DB2" s="63"/>
-      <c r="DC2" s="64"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="70"/>
+      <c r="DC2" s="71"/>
     </row>
     <row r="3" spans="2:107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="66"/>
-      <c r="BP3" s="66"/>
-      <c r="BQ3" s="66"/>
-      <c r="BR3" s="66"/>
-      <c r="BS3" s="66"/>
-      <c r="BT3" s="66"/>
-      <c r="BU3" s="66"/>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="66"/>
-      <c r="BX3" s="66"/>
-      <c r="BY3" s="66"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="66"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="66"/>
-      <c r="CD3" s="66"/>
-      <c r="CE3" s="66"/>
-      <c r="CF3" s="66"/>
-      <c r="CG3" s="66"/>
-      <c r="CH3" s="66"/>
-      <c r="CI3" s="66"/>
-      <c r="CJ3" s="66"/>
-      <c r="CK3" s="66"/>
-      <c r="CL3" s="66"/>
-      <c r="CM3" s="66"/>
-      <c r="CN3" s="66"/>
-      <c r="CO3" s="66"/>
-      <c r="CP3" s="66"/>
-      <c r="CQ3" s="66"/>
-      <c r="CR3" s="66"/>
-      <c r="CS3" s="66"/>
-      <c r="CT3" s="66"/>
-      <c r="CU3" s="66"/>
-      <c r="CV3" s="66"/>
-      <c r="CW3" s="66"/>
-      <c r="CX3" s="66"/>
-      <c r="CY3" s="66"/>
-      <c r="CZ3" s="66"/>
-      <c r="DA3" s="66"/>
-      <c r="DB3" s="66"/>
-      <c r="DC3" s="67"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="73"/>
+      <c r="BM3" s="73"/>
+      <c r="BN3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
+      <c r="BS3" s="73"/>
+      <c r="BT3" s="73"/>
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="73"/>
+      <c r="BW3" s="73"/>
+      <c r="BX3" s="73"/>
+      <c r="BY3" s="73"/>
+      <c r="BZ3" s="73"/>
+      <c r="CA3" s="73"/>
+      <c r="CB3" s="73"/>
+      <c r="CC3" s="73"/>
+      <c r="CD3" s="73"/>
+      <c r="CE3" s="73"/>
+      <c r="CF3" s="73"/>
+      <c r="CG3" s="73"/>
+      <c r="CH3" s="73"/>
+      <c r="CI3" s="73"/>
+      <c r="CJ3" s="73"/>
+      <c r="CK3" s="73"/>
+      <c r="CL3" s="73"/>
+      <c r="CM3" s="73"/>
+      <c r="CN3" s="73"/>
+      <c r="CO3" s="73"/>
+      <c r="CP3" s="73"/>
+      <c r="CQ3" s="73"/>
+      <c r="CR3" s="73"/>
+      <c r="CS3" s="73"/>
+      <c r="CT3" s="73"/>
+      <c r="CU3" s="73"/>
+      <c r="CV3" s="73"/>
+      <c r="CW3" s="73"/>
+      <c r="CX3" s="73"/>
+      <c r="CY3" s="73"/>
+      <c r="CZ3" s="73"/>
+      <c r="DA3" s="73"/>
+      <c r="DB3" s="73"/>
+      <c r="DC3" s="74"/>
     </row>
     <row r="4" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="76" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="68" t="s">
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="69"/>
-      <c r="BF4" s="69"/>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="69"/>
-      <c r="BI4" s="69"/>
-      <c r="BJ4" s="69"/>
-      <c r="BK4" s="69"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="69"/>
-      <c r="BN4" s="69"/>
-      <c r="BO4" s="69"/>
-      <c r="BP4" s="69"/>
-      <c r="BQ4" s="69"/>
-      <c r="BR4" s="69"/>
-      <c r="BS4" s="69"/>
-      <c r="BT4" s="69"/>
-      <c r="BU4" s="69"/>
-      <c r="BV4" s="69"/>
-      <c r="BW4" s="69"/>
-      <c r="BX4" s="69"/>
-      <c r="BY4" s="69"/>
-      <c r="BZ4" s="69"/>
-      <c r="CA4" s="69"/>
-      <c r="CB4" s="69"/>
-      <c r="CC4" s="69"/>
-      <c r="CD4" s="69"/>
-      <c r="CE4" s="69"/>
-      <c r="CF4" s="69"/>
-      <c r="CG4" s="69"/>
-      <c r="CH4" s="69"/>
-      <c r="CI4" s="69"/>
-      <c r="CJ4" s="69"/>
-      <c r="CK4" s="69"/>
-      <c r="CL4" s="69"/>
-      <c r="CM4" s="69"/>
-      <c r="CN4" s="69"/>
-      <c r="CO4" s="69"/>
-      <c r="CP4" s="69"/>
-      <c r="CQ4" s="69"/>
-      <c r="CR4" s="69"/>
-      <c r="CS4" s="69"/>
-      <c r="CT4" s="69"/>
-      <c r="CU4" s="69"/>
-      <c r="CV4" s="69"/>
-      <c r="CW4" s="69"/>
-      <c r="CX4" s="69"/>
-      <c r="CY4" s="69"/>
-      <c r="CZ4" s="69"/>
-      <c r="DA4" s="69"/>
-      <c r="DB4" s="69"/>
-      <c r="DC4" s="70"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
+      <c r="BP4" s="76"/>
+      <c r="BQ4" s="76"/>
+      <c r="BR4" s="76"/>
+      <c r="BS4" s="76"/>
+      <c r="BT4" s="76"/>
+      <c r="BU4" s="76"/>
+      <c r="BV4" s="76"/>
+      <c r="BW4" s="76"/>
+      <c r="BX4" s="76"/>
+      <c r="BY4" s="76"/>
+      <c r="BZ4" s="76"/>
+      <c r="CA4" s="76"/>
+      <c r="CB4" s="76"/>
+      <c r="CC4" s="76"/>
+      <c r="CD4" s="76"/>
+      <c r="CE4" s="76"/>
+      <c r="CF4" s="76"/>
+      <c r="CG4" s="76"/>
+      <c r="CH4" s="76"/>
+      <c r="CI4" s="76"/>
+      <c r="CJ4" s="76"/>
+      <c r="CK4" s="76"/>
+      <c r="CL4" s="76"/>
+      <c r="CM4" s="76"/>
+      <c r="CN4" s="76"/>
+      <c r="CO4" s="76"/>
+      <c r="CP4" s="76"/>
+      <c r="CQ4" s="76"/>
+      <c r="CR4" s="76"/>
+      <c r="CS4" s="76"/>
+      <c r="CT4" s="76"/>
+      <c r="CU4" s="76"/>
+      <c r="CV4" s="76"/>
+      <c r="CW4" s="76"/>
+      <c r="CX4" s="76"/>
+      <c r="CY4" s="76"/>
+      <c r="CZ4" s="76"/>
+      <c r="DA4" s="76"/>
+      <c r="DB4" s="76"/>
+      <c r="DC4" s="77"/>
     </row>
     <row r="5" spans="2:107" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="42"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
@@ -2151,501 +2151,501 @@
     <row r="6" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="82"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="32"/>
       <c r="G6" s="33"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="54"/>
-      <c r="AP6" s="54"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54"/>
-      <c r="AS6" s="54"/>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="54"/>
-      <c r="AV6" s="54"/>
-      <c r="AW6" s="54"/>
-      <c r="AX6" s="54"/>
-      <c r="AY6" s="54"/>
-      <c r="AZ6" s="54"/>
-      <c r="BA6" s="54"/>
-      <c r="BB6" s="54"/>
-      <c r="BC6" s="54"/>
-      <c r="BD6" s="54"/>
-      <c r="BE6" s="54"/>
-      <c r="BF6" s="54"/>
-      <c r="BG6" s="54"/>
-      <c r="BH6" s="54"/>
-      <c r="BI6" s="54"/>
-      <c r="BJ6" s="54"/>
-      <c r="BK6" s="54"/>
-      <c r="BL6" s="54"/>
-      <c r="BM6" s="54"/>
-      <c r="BN6" s="54"/>
-      <c r="BO6" s="54"/>
-      <c r="BP6" s="54"/>
-      <c r="BQ6" s="54"/>
-      <c r="BR6" s="54"/>
-      <c r="BS6" s="54"/>
-      <c r="BT6" s="54"/>
-      <c r="BU6" s="54"/>
-      <c r="BV6" s="54"/>
-      <c r="BW6" s="54"/>
-      <c r="BX6" s="54"/>
-      <c r="BY6" s="54"/>
-      <c r="BZ6" s="54"/>
-      <c r="CA6" s="54"/>
-      <c r="CB6" s="54"/>
-      <c r="CC6" s="54"/>
-      <c r="CD6" s="54"/>
-      <c r="CE6" s="54"/>
-      <c r="CF6" s="54"/>
-      <c r="CG6" s="54"/>
-      <c r="CH6" s="54"/>
-      <c r="CI6" s="54"/>
-      <c r="CJ6" s="54"/>
-      <c r="CK6" s="54"/>
-      <c r="CL6" s="54"/>
-      <c r="CM6" s="54"/>
-      <c r="CN6" s="54"/>
-      <c r="CO6" s="54"/>
-      <c r="CP6" s="54"/>
-      <c r="CQ6" s="54"/>
-      <c r="CR6" s="54"/>
-      <c r="CS6" s="54"/>
-      <c r="CT6" s="54"/>
-      <c r="CU6" s="54"/>
-      <c r="CV6" s="54"/>
-      <c r="CW6" s="54"/>
-      <c r="CX6" s="54"/>
-      <c r="CY6" s="54"/>
-      <c r="CZ6" s="54"/>
-      <c r="DA6" s="54"/>
-      <c r="DB6" s="54"/>
-      <c r="DC6" s="55"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="53"/>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="53"/>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="53"/>
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="53"/>
+      <c r="BX6" s="53"/>
+      <c r="BY6" s="53"/>
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="53"/>
+      <c r="CB6" s="53"/>
+      <c r="CC6" s="53"/>
+      <c r="CD6" s="53"/>
+      <c r="CE6" s="53"/>
+      <c r="CF6" s="53"/>
+      <c r="CG6" s="53"/>
+      <c r="CH6" s="53"/>
+      <c r="CI6" s="53"/>
+      <c r="CJ6" s="53"/>
+      <c r="CK6" s="53"/>
+      <c r="CL6" s="53"/>
+      <c r="CM6" s="53"/>
+      <c r="CN6" s="53"/>
+      <c r="CO6" s="53"/>
+      <c r="CP6" s="53"/>
+      <c r="CQ6" s="53"/>
+      <c r="CR6" s="53"/>
+      <c r="CS6" s="53"/>
+      <c r="CT6" s="53"/>
+      <c r="CU6" s="53"/>
+      <c r="CV6" s="53"/>
+      <c r="CW6" s="53"/>
+      <c r="CX6" s="53"/>
+      <c r="CY6" s="53"/>
+      <c r="CZ6" s="53"/>
+      <c r="DA6" s="53"/>
+      <c r="DB6" s="53"/>
+      <c r="DC6" s="54"/>
     </row>
     <row r="7" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="83"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="83"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="34"/>
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="83"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="34"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="83"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="34"/>
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="83"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="34"/>
       <c r="G11" s="35"/>
     </row>
     <row r="12" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="83"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="34"/>
       <c r="G12" s="35"/>
     </row>
     <row r="13" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="83"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="34"/>
       <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="83"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="34"/>
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="83"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="34"/>
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="83"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="83"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="34"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="83"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="34"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="83"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="34"/>
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
       <c r="C20" s="29"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="83"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="34"/>
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="83"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="34"/>
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="83"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="34"/>
       <c r="G22" s="35"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="83"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="34"/>
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="83"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="34"/>
       <c r="G24" s="35"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="83"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="34"/>
       <c r="G25" s="35"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="83"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="34"/>
       <c r="G26" s="35"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="83"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="34"/>
       <c r="G27" s="35"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="83"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="83"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="34"/>
       <c r="G29" s="35"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="83"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="34"/>
       <c r="G30" s="35"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="83"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="34"/>
       <c r="G31" s="35"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="83"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="83"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
       <c r="C34" s="29"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="83"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="34"/>
       <c r="G34" s="35"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="83"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="64"/>
       <c r="F35" s="34"/>
       <c r="G35" s="35"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="83"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="64"/>
       <c r="F36" s="34"/>
       <c r="G36" s="35"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="83"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="34"/>
       <c r="G37" s="35"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="83"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="34"/>
       <c r="G38" s="35"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="83"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="64"/>
       <c r="F39" s="34"/>
       <c r="G39" s="35"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
       <c r="C40" s="29"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="83"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="64"/>
       <c r="F40" s="34"/>
       <c r="G40" s="35"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="83"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="64"/>
       <c r="F41" s="34"/>
       <c r="G41" s="35"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="83"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="64"/>
       <c r="F42" s="34"/>
       <c r="G42" s="35"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="83"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="64"/>
       <c r="F43" s="34"/>
       <c r="G43" s="35"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
       <c r="C44" s="29"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="83"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="64"/>
       <c r="F44" s="34"/>
       <c r="G44" s="35"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="83"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="64"/>
       <c r="F45" s="34"/>
       <c r="G45" s="35"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="83"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="64"/>
       <c r="F46" s="34"/>
       <c r="G46" s="35"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="83"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="64"/>
       <c r="F47" s="34"/>
       <c r="G47" s="35"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="83"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="64"/>
       <c r="F48" s="34"/>
       <c r="G48" s="35"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
       <c r="C49" s="29"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="83"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="64"/>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
       <c r="C50" s="29"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="83"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="64"/>
       <c r="F50" s="34"/>
       <c r="G50" s="35"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="C51" s="29"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="83"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="64"/>
       <c r="F51" s="34"/>
       <c r="G51" s="35"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
       <c r="C52" s="29"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="83"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="64"/>
       <c r="F52" s="34"/>
       <c r="G52" s="35"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
       <c r="C53" s="29"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="83"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="64"/>
       <c r="F53" s="34"/>
       <c r="G53" s="35"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
       <c r="C54" s="29"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="83"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="64"/>
       <c r="F54" s="34"/>
       <c r="G54" s="35"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
       <c r="C55" s="29"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="41"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="35"/>
     </row>
   </sheetData>

--- a/form_reporting_templates/Form-3CE-update.xlsx
+++ b/form_reporting_templates/Form-3CE-update.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAEC914-2CA4-416E-A8D2-4499DCB710FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D916957-CC9F-4552-A38B-2D6382EB7034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -164,8 +164,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -644,10 +644,10 @@
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -832,6 +832,10 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -891,10 +895,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1222,7 +1222,7 @@
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,24 +1237,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1304,15 +1304,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
       <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1366,7 +1366,7 @@
       <c r="C13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="83"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1479,10 +1479,10 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1610,11 +1610,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1695,338 +1695,338 @@
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="70"/>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="70"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="70"/>
-      <c r="CR2" s="70"/>
-      <c r="CS2" s="70"/>
-      <c r="CT2" s="70"/>
-      <c r="CU2" s="70"/>
-      <c r="CV2" s="70"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="70"/>
-      <c r="CY2" s="70"/>
-      <c r="CZ2" s="70"/>
-      <c r="DA2" s="70"/>
-      <c r="DB2" s="70"/>
-      <c r="DC2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="71"/>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="71"/>
+      <c r="BO2" s="71"/>
+      <c r="BP2" s="71"/>
+      <c r="BQ2" s="71"/>
+      <c r="BR2" s="71"/>
+      <c r="BS2" s="71"/>
+      <c r="BT2" s="71"/>
+      <c r="BU2" s="71"/>
+      <c r="BV2" s="71"/>
+      <c r="BW2" s="71"/>
+      <c r="BX2" s="71"/>
+      <c r="BY2" s="71"/>
+      <c r="BZ2" s="71"/>
+      <c r="CA2" s="71"/>
+      <c r="CB2" s="71"/>
+      <c r="CC2" s="71"/>
+      <c r="CD2" s="71"/>
+      <c r="CE2" s="71"/>
+      <c r="CF2" s="71"/>
+      <c r="CG2" s="71"/>
+      <c r="CH2" s="71"/>
+      <c r="CI2" s="71"/>
+      <c r="CJ2" s="71"/>
+      <c r="CK2" s="71"/>
+      <c r="CL2" s="71"/>
+      <c r="CM2" s="71"/>
+      <c r="CN2" s="71"/>
+      <c r="CO2" s="71"/>
+      <c r="CP2" s="71"/>
+      <c r="CQ2" s="71"/>
+      <c r="CR2" s="71"/>
+      <c r="CS2" s="71"/>
+      <c r="CT2" s="71"/>
+      <c r="CU2" s="71"/>
+      <c r="CV2" s="71"/>
+      <c r="CW2" s="71"/>
+      <c r="CX2" s="71"/>
+      <c r="CY2" s="71"/>
+      <c r="CZ2" s="71"/>
+      <c r="DA2" s="71"/>
+      <c r="DB2" s="71"/>
+      <c r="DC2" s="72"/>
     </row>
     <row r="3" spans="2:107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="73"/>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="73"/>
-      <c r="BO3" s="73"/>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
-      <c r="BS3" s="73"/>
-      <c r="BT3" s="73"/>
-      <c r="BU3" s="73"/>
-      <c r="BV3" s="73"/>
-      <c r="BW3" s="73"/>
-      <c r="BX3" s="73"/>
-      <c r="BY3" s="73"/>
-      <c r="BZ3" s="73"/>
-      <c r="CA3" s="73"/>
-      <c r="CB3" s="73"/>
-      <c r="CC3" s="73"/>
-      <c r="CD3" s="73"/>
-      <c r="CE3" s="73"/>
-      <c r="CF3" s="73"/>
-      <c r="CG3" s="73"/>
-      <c r="CH3" s="73"/>
-      <c r="CI3" s="73"/>
-      <c r="CJ3" s="73"/>
-      <c r="CK3" s="73"/>
-      <c r="CL3" s="73"/>
-      <c r="CM3" s="73"/>
-      <c r="CN3" s="73"/>
-      <c r="CO3" s="73"/>
-      <c r="CP3" s="73"/>
-      <c r="CQ3" s="73"/>
-      <c r="CR3" s="73"/>
-      <c r="CS3" s="73"/>
-      <c r="CT3" s="73"/>
-      <c r="CU3" s="73"/>
-      <c r="CV3" s="73"/>
-      <c r="CW3" s="73"/>
-      <c r="CX3" s="73"/>
-      <c r="CY3" s="73"/>
-      <c r="CZ3" s="73"/>
-      <c r="DA3" s="73"/>
-      <c r="DB3" s="73"/>
-      <c r="DC3" s="74"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="74"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="74"/>
+      <c r="BS3" s="74"/>
+      <c r="BT3" s="74"/>
+      <c r="BU3" s="74"/>
+      <c r="BV3" s="74"/>
+      <c r="BW3" s="74"/>
+      <c r="BX3" s="74"/>
+      <c r="BY3" s="74"/>
+      <c r="BZ3" s="74"/>
+      <c r="CA3" s="74"/>
+      <c r="CB3" s="74"/>
+      <c r="CC3" s="74"/>
+      <c r="CD3" s="74"/>
+      <c r="CE3" s="74"/>
+      <c r="CF3" s="74"/>
+      <c r="CG3" s="74"/>
+      <c r="CH3" s="74"/>
+      <c r="CI3" s="74"/>
+      <c r="CJ3" s="74"/>
+      <c r="CK3" s="74"/>
+      <c r="CL3" s="74"/>
+      <c r="CM3" s="74"/>
+      <c r="CN3" s="74"/>
+      <c r="CO3" s="74"/>
+      <c r="CP3" s="74"/>
+      <c r="CQ3" s="74"/>
+      <c r="CR3" s="74"/>
+      <c r="CS3" s="74"/>
+      <c r="CT3" s="74"/>
+      <c r="CU3" s="74"/>
+      <c r="CV3" s="74"/>
+      <c r="CW3" s="74"/>
+      <c r="CX3" s="74"/>
+      <c r="CY3" s="74"/>
+      <c r="CZ3" s="74"/>
+      <c r="DA3" s="74"/>
+      <c r="DB3" s="74"/>
+      <c r="DC3" s="75"/>
     </row>
     <row r="4" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="75" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="76"/>
-      <c r="BH4" s="76"/>
-      <c r="BI4" s="76"/>
-      <c r="BJ4" s="76"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="76"/>
-      <c r="BM4" s="76"/>
-      <c r="BN4" s="76"/>
-      <c r="BO4" s="76"/>
-      <c r="BP4" s="76"/>
-      <c r="BQ4" s="76"/>
-      <c r="BR4" s="76"/>
-      <c r="BS4" s="76"/>
-      <c r="BT4" s="76"/>
-      <c r="BU4" s="76"/>
-      <c r="BV4" s="76"/>
-      <c r="BW4" s="76"/>
-      <c r="BX4" s="76"/>
-      <c r="BY4" s="76"/>
-      <c r="BZ4" s="76"/>
-      <c r="CA4" s="76"/>
-      <c r="CB4" s="76"/>
-      <c r="CC4" s="76"/>
-      <c r="CD4" s="76"/>
-      <c r="CE4" s="76"/>
-      <c r="CF4" s="76"/>
-      <c r="CG4" s="76"/>
-      <c r="CH4" s="76"/>
-      <c r="CI4" s="76"/>
-      <c r="CJ4" s="76"/>
-      <c r="CK4" s="76"/>
-      <c r="CL4" s="76"/>
-      <c r="CM4" s="76"/>
-      <c r="CN4" s="76"/>
-      <c r="CO4" s="76"/>
-      <c r="CP4" s="76"/>
-      <c r="CQ4" s="76"/>
-      <c r="CR4" s="76"/>
-      <c r="CS4" s="76"/>
-      <c r="CT4" s="76"/>
-      <c r="CU4" s="76"/>
-      <c r="CV4" s="76"/>
-      <c r="CW4" s="76"/>
-      <c r="CX4" s="76"/>
-      <c r="CY4" s="76"/>
-      <c r="CZ4" s="76"/>
-      <c r="DA4" s="76"/>
-      <c r="DB4" s="76"/>
-      <c r="DC4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="77"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="77"/>
+      <c r="BM4" s="77"/>
+      <c r="BN4" s="77"/>
+      <c r="BO4" s="77"/>
+      <c r="BP4" s="77"/>
+      <c r="BQ4" s="77"/>
+      <c r="BR4" s="77"/>
+      <c r="BS4" s="77"/>
+      <c r="BT4" s="77"/>
+      <c r="BU4" s="77"/>
+      <c r="BV4" s="77"/>
+      <c r="BW4" s="77"/>
+      <c r="BX4" s="77"/>
+      <c r="BY4" s="77"/>
+      <c r="BZ4" s="77"/>
+      <c r="CA4" s="77"/>
+      <c r="CB4" s="77"/>
+      <c r="CC4" s="77"/>
+      <c r="CD4" s="77"/>
+      <c r="CE4" s="77"/>
+      <c r="CF4" s="77"/>
+      <c r="CG4" s="77"/>
+      <c r="CH4" s="77"/>
+      <c r="CI4" s="77"/>
+      <c r="CJ4" s="77"/>
+      <c r="CK4" s="77"/>
+      <c r="CL4" s="77"/>
+      <c r="CM4" s="77"/>
+      <c r="CN4" s="77"/>
+      <c r="CO4" s="77"/>
+      <c r="CP4" s="77"/>
+      <c r="CQ4" s="77"/>
+      <c r="CR4" s="77"/>
+      <c r="CS4" s="77"/>
+      <c r="CT4" s="77"/>
+      <c r="CU4" s="77"/>
+      <c r="CV4" s="77"/>
+      <c r="CW4" s="77"/>
+      <c r="CX4" s="77"/>
+      <c r="CY4" s="77"/>
+      <c r="CZ4" s="77"/>
+      <c r="DA4" s="77"/>
+      <c r="DB4" s="77"/>
+      <c r="DC4" s="78"/>
     </row>
     <row r="5" spans="2:107" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">

--- a/form_reporting_templates/Form-3CE-update.xlsx
+++ b/form_reporting_templates/Form-3CE-update.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D916957-CC9F-4552-A38B-2D6382EB7034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81A6CB-B3C9-413A-9EC9-ECFD45DDE153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
-    <t>Focal point</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Original data</t>
+  </si>
+  <si>
+    <t>Liaison officer</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1222,7 @@
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -1259,17 +1259,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1285,7 +1285,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1305,12 +1305,12 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="69" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="10"/>
       <c r="F8" s="69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="69"/>
       <c r="H8" s="11"/>
@@ -1318,12 +1318,12 @@
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10"/>
       <c r="F9" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="11"/>
@@ -1331,12 +1331,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1353,7 +1353,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="65"/>
       <c r="E12" s="10"/>
@@ -1364,7 +1364,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="65"/>
       <c r="E13" s="10"/>
@@ -1393,7 +1393,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1413,12 +1413,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="10"/>
       <c r="F18" s="55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="11"/>
@@ -1426,7 +1426,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="10"/>
@@ -1437,7 +1437,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="10"/>
@@ -1466,7 +1466,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="10"/>
@@ -1480,7 +1480,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="69"/>
       <c r="H24" s="11"/>
@@ -1488,12 +1488,12 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="36"/>
       <c r="E25" s="10"/>
       <c r="F25" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="11"/>
@@ -1504,7 +1504,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
       <c r="F26" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="11"/>
@@ -1512,12 +1512,12 @@
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="10"/>
       <c r="F27" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="11"/>
@@ -1525,7 +1525,7 @@
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="10"/>
@@ -1536,12 +1536,12 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="10"/>
       <c r="F29" s="43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="11"/>
@@ -1549,7 +1549,7 @@
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="10"/>
@@ -1560,11 +1560,11 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="37"/>
       <c r="E31" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1591,7 +1591,7 @@
     <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="10"/>
@@ -1631,7 +1631,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uP9CdPJ8vbJJ3eXNrHq0OmCh555X+jH/m9uHuJT8xurDQ0R+TYL8Gee3/iB0x5oieSpZi46gP902RqPaEHBo+A==" saltValue="oHKY8hRMaEtUZo/Q7dsceg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="obKnfZBb4QR3X6DybJXPiDCAvs8l0r1U45KWDBVW66/djxcMQpGqywbJYXVdhs0MCVVHMNI+jPmXMy5Waqac+A==" saltValue="hxpjOCkvgYXEfh4iNat7sA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="F24:G24"/>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="2" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -1914,19 +1914,19 @@
     </row>
     <row r="4" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="80"/>
       <c r="D4" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="82"/>
       <c r="G4" s="83"/>
       <c r="H4" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="77"/>
       <c r="J4" s="77"/>
@@ -2030,22 +2030,22 @@
     </row>
     <row r="5" spans="2:107" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="24"/>

--- a/form_reporting_templates/Form-3CE-update.xlsx
+++ b/form_reporting_templates/Form-3CE-update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data_dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81A6CB-B3C9-413A-9EC9-ECFD45DDE153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFDEE14-E109-45A5-995C-F3E95D0DDBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -797,10 +797,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -834,6 +830,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1355,7 +1355,7 @@
       <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1366,7 +1366,7 @@
       <c r="C13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="65"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1631,7 +1631,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="obKnfZBb4QR3X6DybJXPiDCAvs8l0r1U45KWDBVW66/djxcMQpGqywbJYXVdhs0MCVVHMNI+jPmXMy5Waqac+A==" saltValue="hxpjOCkvgYXEfh4iNat7sA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8Y65JTK7JKgynWremIGGeCGqVPBJK7zt1wCp4N3zPUYV/WypX4iWd2AaOcfXgNucABpwjFiL90nPGjgP04E2iw==" saltValue="zJQ8tYX9KAY1L19Fb46CCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="F24:G24"/>
@@ -1645,18 +1645,18 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{F1D811EA-5FE5-4CDE-ACBC-6C1307C55A81}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{6EA88155-3516-41F0-8948-1ABD8397C716}"/>
-    <hyperlink ref="C25" r:id="rId3" location="types" xr:uid="{622B0C49-8893-494A-9BCD-E4B332B3D3A5}"/>
-    <hyperlink ref="C28" r:id="rId4" location="processingsCE" xr:uid="{B5020CB7-2D60-4DAF-BC95-0497980829AA}"/>
-    <hyperlink ref="C27" r:id="rId5" location="sourcesCE" xr:uid="{1A836EF2-15CA-4640-90B8-B74BF168D813}"/>
-    <hyperlink ref="C30" r:id="rId6" location="coverageTypes" xr:uid="{013FAABD-1572-473B-B550-FAF1698D10DE}"/>
-    <hyperlink ref="F25" r:id="rId7" location="effortUnits" xr:uid="{150732B0-A296-4C6B-9503-13DEB74C43C7}"/>
-    <hyperlink ref="F26" r:id="rId8" location="effortUnits" xr:uid="{914CF9D3-106A-4C42-83DF-665A18536974}"/>
-    <hyperlink ref="F27" r:id="rId9" location="effortUnits" xr:uid="{55C82F7F-5364-4BED-9B8A-7213AC43E65D}"/>
-    <hyperlink ref="F18" r:id="rId10" location="fisheries" xr:uid="{300E7C57-BF11-48D5-806D-A557077EFDDC}"/>
-    <hyperlink ref="F29" r:id="rId11" location="catchUnits" xr:uid="{694B8E7C-6A24-4CE6-B38C-C7C534A0E30A}"/>
-    <hyperlink ref="C29" r:id="rId12" location="raisings" xr:uid="{31288DD3-9540-46D2-BC5F-E8985A958127}"/>
+    <hyperlink ref="C20" r:id="rId1" location="countries" display="Flag country" xr:uid="{6EA88155-3516-41F0-8948-1ABD8397C716}"/>
+    <hyperlink ref="C25" r:id="rId2" location="types" xr:uid="{622B0C49-8893-494A-9BCD-E4B332B3D3A5}"/>
+    <hyperlink ref="C28" r:id="rId3" location="processingsCE" xr:uid="{B5020CB7-2D60-4DAF-BC95-0497980829AA}"/>
+    <hyperlink ref="C27" r:id="rId4" location="sourcesCE" xr:uid="{1A836EF2-15CA-4640-90B8-B74BF168D813}"/>
+    <hyperlink ref="C30" r:id="rId5" location="coverageTypes" xr:uid="{013FAABD-1572-473B-B550-FAF1698D10DE}"/>
+    <hyperlink ref="F25" r:id="rId6" location="effortUnits" xr:uid="{150732B0-A296-4C6B-9503-13DEB74C43C7}"/>
+    <hyperlink ref="F26" r:id="rId7" location="effortUnits" xr:uid="{914CF9D3-106A-4C42-83DF-665A18536974}"/>
+    <hyperlink ref="F27" r:id="rId8" location="effortUnits" xr:uid="{55C82F7F-5364-4BED-9B8A-7213AC43E65D}"/>
+    <hyperlink ref="F18" r:id="rId9" location="fisheries" xr:uid="{300E7C57-BF11-48D5-806D-A557077EFDDC}"/>
+    <hyperlink ref="F29" r:id="rId10" location="catchUnits" xr:uid="{694B8E7C-6A24-4CE6-B38C-C7C534A0E30A}"/>
+    <hyperlink ref="C29" r:id="rId11" location="raisings" xr:uid="{31288DD3-9540-46D2-BC5F-E8985A958127}"/>
+    <hyperlink ref="C19" r:id="rId12" location="entities" xr:uid="{F1D811EA-5FE5-4CDE-ACBC-6C1307C55A81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -1679,7 +1679,7 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="47" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="49" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="50" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="51" customWidth="1"/>
@@ -1917,7 +1917,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="80"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="81" t="s">
@@ -2032,13 +2032,13 @@
       <c r="B5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="61" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="45" t="s">
@@ -2151,8 +2151,8 @@
     <row r="6" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="63"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="32"/>
       <c r="G6" s="33"/>
       <c r="H6" s="52"/>
@@ -2259,397 +2259,397 @@
     <row r="7" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="34"/>
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="34"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="64"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="34"/>
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="34"/>
       <c r="G11" s="35"/>
     </row>
     <row r="12" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="64"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="34"/>
       <c r="G12" s="35"/>
     </row>
     <row r="13" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="64"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="34"/>
       <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="34"/>
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="64"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="34"/>
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="34"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="34"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="34"/>
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
       <c r="C20" s="29"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="34"/>
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="64"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="34"/>
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="34"/>
       <c r="G22" s="35"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="34"/>
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="64"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="34"/>
       <c r="G24" s="35"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="64"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="34"/>
       <c r="G25" s="35"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="34"/>
       <c r="G26" s="35"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="64"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="34"/>
       <c r="G27" s="35"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="64"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="34"/>
       <c r="G29" s="35"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="34"/>
       <c r="G30" s="35"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="64"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="34"/>
       <c r="G31" s="35"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="64"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="64"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
       <c r="C34" s="29"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="64"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="34"/>
       <c r="G34" s="35"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="64"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="34"/>
       <c r="G35" s="35"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="64"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="34"/>
       <c r="G36" s="35"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="64"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="34"/>
       <c r="G37" s="35"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="64"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="63"/>
       <c r="F38" s="34"/>
       <c r="G38" s="35"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="64"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="34"/>
       <c r="G39" s="35"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
       <c r="C40" s="29"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="64"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="63"/>
       <c r="F40" s="34"/>
       <c r="G40" s="35"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="64"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="34"/>
       <c r="G41" s="35"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="64"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="63"/>
       <c r="F42" s="34"/>
       <c r="G42" s="35"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="64"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="34"/>
       <c r="G43" s="35"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
       <c r="C44" s="29"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="64"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="34"/>
       <c r="G44" s="35"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="64"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="34"/>
       <c r="G45" s="35"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="64"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="63"/>
       <c r="F46" s="34"/>
       <c r="G46" s="35"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="64"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="34"/>
       <c r="G47" s="35"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="64"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="34"/>
       <c r="G48" s="35"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
       <c r="C49" s="29"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="64"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="34"/>
       <c r="G49" s="35"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
       <c r="C50" s="29"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="64"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="63"/>
       <c r="F50" s="34"/>
       <c r="G50" s="35"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
       <c r="C51" s="29"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="64"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="34"/>
       <c r="G51" s="35"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
       <c r="C52" s="29"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="64"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="34"/>
       <c r="G52" s="35"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
       <c r="C53" s="29"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="64"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="34"/>
       <c r="G53" s="35"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
       <c r="C54" s="29"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="64"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="63"/>
       <c r="F54" s="34"/>
       <c r="G54" s="35"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
       <c r="C55" s="29"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="64"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="40"/>
       <c r="G55" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="alt0JK7InFuwzLxuqhQ4oL3ojJ1Z06eWTwohQIsHI5eLKZmRdWFjCV+WXagvKjax0BjeYOPZl5IBed+drk2FGQ==" saltValue="NUR9rD3IKo9as9fH+cvZaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AuCTdXbOs6EXZBKc5Gh7MIx0peNSUgjy46GWQIsYBQC9rWN4jsC6BL0y/p0QWgVxGPYLKO1/EhWp0PmMu6W+mg==" saltValue="D3d6TbMMBbpwC+aOW6+xkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:DC3"/>
     <mergeCell ref="H4:DC4"/>
@@ -2672,9 +2672,9 @@
     <hyperlink ref="E5" r:id="rId3" location="effortUnits" xr:uid="{468964A1-E4FC-47E0-9E42-4D9537E96447}"/>
     <hyperlink ref="F5" r:id="rId4" location="effortUnits" xr:uid="{9D1285B6-46D4-4CCD-B861-FE1D0D85FEB4}"/>
     <hyperlink ref="G5" r:id="rId5" location="effortUnits" xr:uid="{1C3FF506-88DD-4383-A01E-BF198660FD11}"/>
-    <hyperlink ref="H4:DC4" r:id="rId6" location="species" display="Catches by species" xr:uid="{59F9B753-650B-46EE-8959-A05A6A7304F4}"/>
+    <hyperlink ref="CY4:CZ4" r:id="rId6" location="species" display="Catches by species" xr:uid="{FF49D6AA-C892-47FF-9338-50DC38F8D700}"/>
     <hyperlink ref="I4:BD4" r:id="rId7" location="species" display="Catches by species" xr:uid="{2B29FFEB-46DC-4078-9E68-CF382E345132}"/>
-    <hyperlink ref="CY4:CZ4" r:id="rId8" location="species" display="Catches by species" xr:uid="{FF49D6AA-C892-47FF-9338-50DC38F8D700}"/>
+    <hyperlink ref="H4:DC4" r:id="rId8" location="allSpecies" display="Catches by species" xr:uid="{59F9B753-650B-46EE-8959-A05A6A7304F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
